--- a/slang_indo1.xlsx
+++ b/slang_indo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Draft Tugas\TUBES MINING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDEA987-5D50-457A-8935-AAD84E87CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27CD9A-C296-433E-ABCE-446A690652BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{43D88A90-2172-449C-9992-B023FC71D32F}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="7860" windowHeight="10890" xr2:uid="{43D88A90-2172-449C-9992-B023FC71D32F}"/>
   </bookViews>
   <sheets>
     <sheet name="slang_indo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5924" uniqueCount="2411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5929" uniqueCount="2415">
   <si>
     <t>aamiin</t>
   </si>
@@ -7253,6 +7253,18 @@
   </si>
   <si>
     <t>untuk informasimu</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>mengganggu</t>
   </si>
 </sst>
 </file>
@@ -8128,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED07C94-7430-499B-B42C-5C8949A19527}">
-  <dimension ref="A1:B2966"/>
+  <dimension ref="A1:B2969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2946" workbookViewId="0">
-      <selection activeCell="B2967" sqref="B2967"/>
+    <sheetView tabSelected="1" topLeftCell="A2948" workbookViewId="0">
+      <selection activeCell="A2956" sqref="A2956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31841,6 +31853,27 @@
         <v>2410</v>
       </c>
     </row>
+    <row r="2967" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2967" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2968" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2969" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>2414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/slang_indo1.xlsx
+++ b/slang_indo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Draft Tugas\TUBES MINING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27CD9A-C296-433E-ABCE-446A690652BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D0DF0-9C6F-4009-B4E0-4D26069CC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="0" windowWidth="7860" windowHeight="10890" xr2:uid="{43D88A90-2172-449C-9992-B023FC71D32F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{43D88A90-2172-449C-9992-B023FC71D32F}"/>
   </bookViews>
   <sheets>
     <sheet name="slang_indo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5929" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="2858">
   <si>
     <t>aamiin</t>
   </si>
@@ -7265,6 +7265,1335 @@
   </si>
   <si>
     <t>mengganggu</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>meñjadi</t>
+  </si>
+  <si>
+    <t>menjadi</t>
+  </si>
+  <si>
+    <t>kya</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>is the</t>
+  </si>
+  <si>
+    <t>adalah</t>
+  </si>
+  <si>
+    <t>transakti</t>
+  </si>
+  <si>
+    <t>transaksi</t>
+  </si>
+  <si>
+    <t>woiii</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>benar benar</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>gimn</t>
+  </si>
+  <si>
+    <t>bagaimana</t>
+  </si>
+  <si>
+    <t>hellooo</t>
+  </si>
+  <si>
+    <t>halo</t>
+  </si>
+  <si>
+    <t>log out</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>kemanan</t>
+  </si>
+  <si>
+    <t>comfot</t>
+  </si>
+  <si>
+    <t>kenyamanan</t>
+  </si>
+  <si>
+    <t>gituuuuuu</t>
+  </si>
+  <si>
+    <t>lamaaaaa</t>
+  </si>
+  <si>
+    <t>lama</t>
+  </si>
+  <si>
+    <t>ajaa</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>layanan pelanggan</t>
+  </si>
+  <si>
+    <t>kerja</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>otomatis</t>
+  </si>
+  <si>
+    <t>mntao</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>aduhhh</t>
+  </si>
+  <si>
+    <t>apesss</t>
+  </si>
+  <si>
+    <t>sial</t>
+  </si>
+  <si>
+    <t>matap</t>
+  </si>
+  <si>
+    <t>lakas</t>
+  </si>
+  <si>
+    <t>lekas</t>
+  </si>
+  <si>
+    <t>banar</t>
+  </si>
+  <si>
+    <t>benar</t>
+  </si>
+  <si>
+    <t>harunya</t>
+  </si>
+  <si>
+    <t>harus</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>masuk</t>
+  </si>
+  <si>
+    <t>otp</t>
+  </si>
+  <si>
+    <t>kode verifikasi</t>
+  </si>
+  <si>
+    <t>makyos</t>
+  </si>
+  <si>
+    <t>mangkin</t>
+  </si>
+  <si>
+    <t>semakin</t>
+  </si>
+  <si>
+    <t>gojeg</t>
+  </si>
+  <si>
+    <t>go jek</t>
+  </si>
+  <si>
+    <t>customernya</t>
+  </si>
+  <si>
+    <t>gacor</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>ambil</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>mendukung</t>
+  </si>
+  <si>
+    <t>downluad</t>
+  </si>
+  <si>
+    <t>unduh</t>
+  </si>
+  <si>
+    <t>drivernya</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>simpel</t>
+  </si>
+  <si>
+    <t>expres</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>hatur nuhun</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>riwayat</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>lapor</t>
+  </si>
+  <si>
+    <t>sii</t>
+  </si>
+  <si>
+    <t>sih</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>pemeliharaan</t>
+  </si>
+  <si>
+    <t>mentince</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>grab</t>
+  </si>
+  <si>
+    <t>lambatt</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>perbarui</t>
+  </si>
+  <si>
+    <t>ngendap</t>
+  </si>
+  <si>
+    <t>tahan</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>peta</t>
+  </si>
+  <si>
+    <t>maintance</t>
+  </si>
+  <si>
+    <t>hah</t>
+  </si>
+  <si>
+    <t>haduh</t>
+  </si>
+  <si>
+    <t>vcr</t>
+  </si>
+  <si>
+    <t>vocher</t>
+  </si>
+  <si>
+    <t>kupon</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>mati</t>
+  </si>
+  <si>
+    <t>drivermu</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>rusak</t>
+  </si>
+  <si>
+    <t>eror</t>
+  </si>
+  <si>
+    <t>senangya</t>
+  </si>
+  <si>
+    <t>senang</t>
+  </si>
+  <si>
+    <t>goride</t>
+  </si>
+  <si>
+    <t>go send</t>
+  </si>
+  <si>
+    <t>gosend</t>
+  </si>
+  <si>
+    <t>upedatan</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>ngeghosting</t>
+  </si>
+  <si>
+    <t>meninggalkan</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>lagiii</t>
+  </si>
+  <si>
+    <t>dongggg</t>
+  </si>
+  <si>
+    <t>mateb</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>instalasi</t>
+  </si>
+  <si>
+    <t>kerenn</t>
+  </si>
+  <si>
+    <t>mantapppp</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>drpada</t>
+  </si>
+  <si>
+    <t>daripada</t>
+  </si>
+  <si>
+    <t>sempel</t>
+  </si>
+  <si>
+    <t>transpot</t>
+  </si>
+  <si>
+    <t>transportasi</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>go car</t>
+  </si>
+  <si>
+    <t>timgal</t>
+  </si>
+  <si>
+    <t>wkwkwk</t>
+  </si>
+  <si>
+    <t>tertawa</t>
+  </si>
+  <si>
+    <t>rekomended</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>panjang</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>terakhir</t>
+  </si>
+  <si>
+    <t>terimakasih</t>
+  </si>
+  <si>
+    <t>anjayyy</t>
+  </si>
+  <si>
+    <t>markotop</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>kadaluarsa</t>
+  </si>
+  <si>
+    <t>blanja</t>
+  </si>
+  <si>
+    <t>baliasany</t>
+  </si>
+  <si>
+    <t>balas</t>
+  </si>
+  <si>
+    <t>muda hn</t>
+  </si>
+  <si>
+    <t>mudah</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>bohong</t>
+  </si>
+  <si>
+    <t>jos</t>
+  </si>
+  <si>
+    <t>mapsnya</t>
+  </si>
+  <si>
+    <t>keliru</t>
+  </si>
+  <si>
+    <t>salah</t>
+  </si>
+  <si>
+    <t>masam</t>
+  </si>
+  <si>
+    <t>pasang</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>penuh</t>
+  </si>
+  <si>
+    <t>ekspres</t>
+  </si>
+  <si>
+    <t>ilang</t>
+  </si>
+  <si>
+    <t>hilang</t>
+  </si>
+  <si>
+    <t>sinkron</t>
+  </si>
+  <si>
+    <t>prioritas</t>
+  </si>
+  <si>
+    <t>utama</t>
+  </si>
+  <si>
+    <t>ordran</t>
+  </si>
+  <si>
+    <t>loh</t>
+  </si>
+  <si>
+    <t>lohh</t>
+  </si>
+  <si>
+    <t>bangettt</t>
+  </si>
+  <si>
+    <t>pliseee</t>
+  </si>
+  <si>
+    <t>tolong</t>
+  </si>
+  <si>
+    <t>lahhh</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>hasil</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t>perangkat</t>
+  </si>
+  <si>
+    <t>restart</t>
+  </si>
+  <si>
+    <t>ulang</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>bluetooth</t>
+  </si>
+  <si>
+    <t>lemot</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>mantuuuull</t>
+  </si>
+  <si>
+    <t>padhl</t>
+  </si>
+  <si>
+    <t>hargane</t>
+  </si>
+  <si>
+    <t>harga</t>
+  </si>
+  <si>
+    <t>harganya</t>
+  </si>
+  <si>
+    <t>otw</t>
+  </si>
+  <si>
+    <t>dalam perjalanan</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>kepada</t>
+  </si>
+  <si>
+    <t>ongkir</t>
+  </si>
+  <si>
+    <t>ongkos kirim</t>
+  </si>
+  <si>
+    <t>rebu</t>
+  </si>
+  <si>
+    <t>sengja</t>
+  </si>
+  <si>
+    <t>sengaja</t>
+  </si>
+  <si>
+    <t>bisaaaa</t>
+  </si>
+  <si>
+    <t>verifikasi</t>
+  </si>
+  <si>
+    <t>ktp</t>
+  </si>
+  <si>
+    <t>identitas</t>
+  </si>
+  <si>
+    <t>lebihin</t>
+  </si>
+  <si>
+    <t>maf</t>
+  </si>
+  <si>
+    <t>supirnya</t>
+  </si>
+  <si>
+    <t>supir</t>
+  </si>
+  <si>
+    <t>batang</t>
+  </si>
+  <si>
+    <t>drevernya</t>
+  </si>
+  <si>
+    <t>cengkunek</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>kang</t>
+  </si>
+  <si>
+    <t>modus</t>
+  </si>
+  <si>
+    <t>tlong</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>siipp</t>
+  </si>
+  <si>
+    <t>diskon</t>
+  </si>
+  <si>
+    <t>potong harga</t>
+  </si>
+  <si>
+    <t>mnyenankan</t>
+  </si>
+  <si>
+    <t>korup</t>
+  </si>
+  <si>
+    <t>korupsi</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>panggil</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>tengah</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>dasar</t>
+  </si>
+  <si>
+    <t>templet</t>
+  </si>
+  <si>
+    <t>oerivikasi</t>
+  </si>
+  <si>
+    <t>mempesan</t>
+  </si>
+  <si>
+    <t>ditmpt</t>
+  </si>
+  <si>
+    <t>tempat</t>
+  </si>
+  <si>
+    <t>mesenin</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>kaga</t>
+  </si>
+  <si>
+    <t>itikat</t>
+  </si>
+  <si>
+    <t>itikad</t>
+  </si>
+  <si>
+    <t>nabrak</t>
+  </si>
+  <si>
+    <t>tabrak</t>
+  </si>
+  <si>
+    <t>pastiin</t>
+  </si>
+  <si>
+    <t>tooooop</t>
+  </si>
+  <si>
+    <t>membatu</t>
+  </si>
+  <si>
+    <t>bantu</t>
+  </si>
+  <si>
+    <t>apl</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>komputer</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>tiba</t>
+  </si>
+  <si>
+    <t>sori</t>
+  </si>
+  <si>
+    <t>langanan</t>
+  </si>
+  <si>
+    <t>langganan</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>setiap hari</t>
+  </si>
+  <si>
+    <t>everytime</t>
+  </si>
+  <si>
+    <t>setiap waktu</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t>menghidupa</t>
+  </si>
+  <si>
+    <t>qriss</t>
+  </si>
+  <si>
+    <t>kode</t>
+  </si>
+  <si>
+    <t>qris</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>pindah</t>
+  </si>
+  <si>
+    <t>ngedetek</t>
+  </si>
+  <si>
+    <t>deteksi</t>
+  </si>
+  <si>
+    <t>ghosting</t>
+  </si>
+  <si>
+    <t>ush</t>
+  </si>
+  <si>
+    <t>perlu</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>makanan</t>
+  </si>
+  <si>
+    <t>vocer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>asli</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>biaya</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>kirim</t>
+  </si>
+  <si>
+    <t>dahlah</t>
+  </si>
+  <si>
+    <t>marger</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>batas</t>
+  </si>
+  <si>
+    <t>greb</t>
+  </si>
+  <si>
+    <t>supor</t>
+  </si>
+  <si>
+    <t>dukung</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>pengembang</t>
+  </si>
+  <si>
+    <t>sabotase</t>
+  </si>
+  <si>
+    <t>curang</t>
+  </si>
+  <si>
+    <t>elayanan</t>
+  </si>
+  <si>
+    <t>pelayanan</t>
+  </si>
+  <si>
+    <t>akuasisi</t>
+  </si>
+  <si>
+    <t>gooddd</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>jay</t>
+  </si>
+  <si>
+    <t>jaya</t>
+  </si>
+  <si>
+    <t>jooozzzz mantaaaabbb</t>
+  </si>
+  <si>
+    <t>sangat bagus</t>
+  </si>
+  <si>
+    <t>instal</t>
+  </si>
+  <si>
+    <t>chatting</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>akuisisi</t>
+  </si>
+  <si>
+    <t>hhuuffttt</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>terima</t>
+  </si>
+  <si>
+    <t>kouta</t>
+  </si>
+  <si>
+    <t>kuota</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>blunder</t>
+  </si>
+  <si>
+    <t>suspen</t>
+  </si>
+  <si>
+    <t>tangguh</t>
+  </si>
+  <si>
+    <t>besara</t>
+  </si>
+  <si>
+    <t>siip</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pengguna</t>
+  </si>
+  <si>
+    <t>ampas</t>
+  </si>
+  <si>
+    <t>uerger</t>
+  </si>
+  <si>
+    <t>mantaf</t>
+  </si>
+  <si>
+    <t>jujurt</t>
+  </si>
+  <si>
+    <t>jujur</t>
+  </si>
+  <si>
+    <t>peraktis</t>
+  </si>
+  <si>
+    <t>praktis</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>bosok</t>
+  </si>
+  <si>
+    <t>waw</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>guys</t>
+  </si>
+  <si>
+    <t>teman</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>garain</t>
+  </si>
+  <si>
+    <t>membuat</t>
+  </si>
+  <si>
+    <t>mantapppppp</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>pinjol</t>
+  </si>
+  <si>
+    <t>pinjaman online</t>
+  </si>
+  <si>
+    <t>nagihnya</t>
+  </si>
+  <si>
+    <t>tagih</t>
+  </si>
+  <si>
+    <t>jelekk</t>
+  </si>
+  <si>
+    <t>lamaa</t>
+  </si>
+  <si>
+    <t>deteknya</t>
+  </si>
+  <si>
+    <t>puts</t>
+  </si>
+  <si>
+    <t>putus</t>
+  </si>
+  <si>
+    <t>on time</t>
+  </si>
+  <si>
+    <t>tepat waktu</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>tepat</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>waktu</t>
+  </si>
+  <si>
+    <t>nga</t>
+  </si>
+  <si>
+    <t>playlater</t>
+  </si>
+  <si>
+    <t>paylater</t>
+  </si>
+  <si>
+    <t>tampilanua</t>
+  </si>
+  <si>
+    <t>tampilan</t>
+  </si>
+  <si>
+    <t>barokallohufikum</t>
+  </si>
+  <si>
+    <t>mantaps</t>
+  </si>
+  <si>
+    <t>msntap</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>gorudeaja</t>
+  </si>
+  <si>
+    <t>goride aja</t>
+  </si>
+  <si>
+    <t>mantapp</t>
+  </si>
+  <si>
+    <t>andalkan</t>
+  </si>
+  <si>
+    <t>hapusssss</t>
+  </si>
+  <si>
+    <t>hapus</t>
+  </si>
+  <si>
+    <t>laknat</t>
+  </si>
+  <si>
+    <t>setan</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>profesional</t>
+  </si>
+  <si>
+    <t>okeeee</t>
+  </si>
+  <si>
+    <t>sangatmembantu</t>
+  </si>
+  <si>
+    <t>sangat membantu</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>oky</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>toko</t>
+  </si>
+  <si>
+    <t>aqun</t>
+  </si>
+  <si>
+    <t>akun</t>
+  </si>
+  <si>
+    <t>bpa</t>
+  </si>
+  <si>
+    <t>slaah</t>
+  </si>
+  <si>
+    <t>brubah</t>
+  </si>
+  <si>
+    <t>dicancel</t>
+  </si>
+  <si>
+    <t>gabecus</t>
+  </si>
+  <si>
+    <t>tidak benar</t>
+  </si>
+  <si>
+    <t>manteb</t>
+  </si>
+  <si>
+    <t>medit</t>
+  </si>
+  <si>
+    <t>pelit</t>
+  </si>
+  <si>
+    <t>irittttt</t>
+  </si>
+  <si>
+    <t>hemat</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>aps</t>
+  </si>
+  <si>
+    <t>terkahir</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>gajek</t>
+  </si>
+  <si>
+    <t>dptnya</t>
+  </si>
+  <si>
+    <t>orangtua</t>
+  </si>
+  <si>
+    <t>orang tua</t>
+  </si>
+  <si>
+    <t>ngaco</t>
+  </si>
+  <si>
+    <t>ngawur</t>
+  </si>
+  <si>
+    <t>toooopppp</t>
+  </si>
+  <si>
+    <t>noll</t>
+  </si>
+  <si>
+    <t>nol</t>
+  </si>
+  <si>
+    <t>woyy</t>
+  </si>
+  <si>
+    <t>ngerugiin</t>
+  </si>
+  <si>
+    <t>rugi</t>
+  </si>
+  <si>
+    <t>ngapain</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>trasportasi</t>
+  </si>
+  <si>
+    <t>mantaapp</t>
+  </si>
+  <si>
+    <t>membantuk</t>
+  </si>
+  <si>
+    <t>pemsanan</t>
+  </si>
+  <si>
+    <t>cakap</t>
+  </si>
+  <si>
+    <t>makasiiih</t>
+  </si>
+  <si>
+    <t>usefull</t>
+  </si>
+  <si>
+    <t>berguna</t>
+  </si>
+  <si>
+    <t>gorideaja</t>
+  </si>
+  <si>
+    <t>yapping</t>
+  </si>
+  <si>
+    <t>banyak omong</t>
+  </si>
+  <si>
+    <t>baget</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>klaim</t>
+  </si>
+  <si>
+    <t>sippp</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>minn</t>
+  </si>
+  <si>
+    <t>masaa</t>
+  </si>
+  <si>
+    <t>masa</t>
+  </si>
+  <si>
+    <t>verivikasi</t>
+  </si>
+  <si>
+    <t>joeb</t>
+  </si>
+  <si>
+    <t>bulak balik</t>
+  </si>
+  <si>
+    <t>balik</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>bangke</t>
+  </si>
+  <si>
+    <t>bodoh</t>
+  </si>
+  <si>
+    <t>asw</t>
+  </si>
+  <si>
+    <t>anjing</t>
+  </si>
+  <si>
+    <t>gimanamin</t>
+  </si>
+  <si>
+    <t>bagaimana admin</t>
+  </si>
+  <si>
+    <t>poll</t>
+  </si>
+  <si>
+    <t>nyantaii</t>
+  </si>
+  <si>
+    <t>kaya</t>
+  </si>
+  <si>
+    <t>nyamannnnn</t>
   </si>
 </sst>
 </file>
@@ -8140,10 +9469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED07C94-7430-499B-B42C-5C8949A19527}">
-  <dimension ref="A1:B2969"/>
+  <dimension ref="A1:B3283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2948" workbookViewId="0">
-      <selection activeCell="A2956" sqref="A2956"/>
+    <sheetView tabSelected="1" topLeftCell="A3263" workbookViewId="0">
+      <selection activeCell="A3284" sqref="A3284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31865,6 +33194,9 @@
       <c r="A2968" t="s">
         <v>2412</v>
       </c>
+      <c r="B2968" t="s">
+        <v>2415</v>
+      </c>
     </row>
     <row r="2969" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2969" t="s">
@@ -31872,6 +33204,2518 @@
       </c>
       <c r="B2969" t="s">
         <v>2414</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2970" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2971" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2972" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2973" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2974" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2975" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2976" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2977" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2978" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2979" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2980" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2981" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2982" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2983" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2984" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2985" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2986" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2987" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2988" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2989" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2990" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2991" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2992" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2993" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2994" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2995" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2996" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2997" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2998" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2999" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3000" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3001" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3002" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3003" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3004" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3005" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3006" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3007" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3008" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3009" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3010" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3011" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3012" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3013" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3014" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3015" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3016" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3017" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3018" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3019" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3020" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3021" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3022" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3023" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3024" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3025" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3026" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3027" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3028" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3029" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3030" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3031" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3032" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3033" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3034" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3035" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3036" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3037" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3038" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3039" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3040" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3041" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3042" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3043" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3044" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3045" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3046" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3047" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3048" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3049" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3050" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3051" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3052" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3053" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3054" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3055" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3056" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3057" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3058" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3059" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3060" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3061" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3062" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3063" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3064" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3065" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3066" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3067" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3068" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3069" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3070" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3071" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3072" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3073" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3074" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3075" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3076" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3077" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3078" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3079" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3080" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3081" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3082" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3083" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3084" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3085" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3086" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3087" t="s">
+        <v>2582</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3088" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3089" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3090" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3091" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3092" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3093" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3094" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3095" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3096" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3097" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3098" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3099" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3100" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3101" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3102" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3103" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3104" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3105" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3106" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3107" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3108" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3109" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3110" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3111" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3112" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3113" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3114" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3115" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3116" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3117" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3118" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3119" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3120" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3121" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3122" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3123" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3124" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3125" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3126" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3127" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3128" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3129" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3130" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3131" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3132" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3133" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3134" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3135" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3136" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3137" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3138" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3139" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3140" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3141" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3142" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3143" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3144" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3145" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3146" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3147" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3148" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3149" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3150" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3151" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3152" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3153" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3154" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3155" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3156" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3157" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3158" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3159" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3160" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3161" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3162" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3163" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3164" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3165" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3166" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3167" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3168" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3169" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3170" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3171" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3172" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3173" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3174" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3175" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3176" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3177" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3178" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3179" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3180" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3181" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3182" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3183" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3184" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3185" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3186" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3187" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3188" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3189" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3190" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3191" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3192" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3193" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3194" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3195" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3196" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3197" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3198" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3199" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3200" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3201" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3202" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3203" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3204" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3205" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3206" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3207" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3208" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3209" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3210" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3211" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3212" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3213" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3214" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3215" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3216" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3217" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3218" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B3218" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3219" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B3219" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3220" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B3220" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3221" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B3221" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3222" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B3222" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3223" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B3223" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3224" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B3224" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3225" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B3225" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3226" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B3226" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3227" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B3227" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3228" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B3228" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3229" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B3229" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3230" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B3230" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3231" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B3231" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3232" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B3232" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3233" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B3233" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3234" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B3234" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3235" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B3235" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3236" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B3236" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3237" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B3237" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3238" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B3238" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3239" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B3239" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3240" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B3240" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3241" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B3241" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3242" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B3242" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3243" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B3243" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3244" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B3244" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3245" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B3245" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3246" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B3246" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3247" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B3247" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3248" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B3248" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3249" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B3249" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3250" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B3250" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3251" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B3251" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3252" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B3252" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3253" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B3253" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3254" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B3254" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3255" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B3255" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3256" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B3256" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3257" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B3257" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3258" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B3258" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3259" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B3259" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3260" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B3260" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3261" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B3261" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3262" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B3262" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3263" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B3263" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3264" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B3264" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3265" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B3265" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3266" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B3266" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3267" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B3267" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3268" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B3268" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3269" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B3269" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3270" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B3270" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3271" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B3271" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3272" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B3272" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3273" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B3273" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3274" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B3274" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3275" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B3275" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3276" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B3276" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3277" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B3277" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3278" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B3278" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3279" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B3279" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3280" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B3280" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3281" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B3281" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3282" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B3282" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3283" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B3283" t="s">
+        <v>2317</v>
       </c>
     </row>
   </sheetData>

--- a/slang_indo1.xlsx
+++ b/slang_indo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Draft Tugas\TUBES MINING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01D0DF0-9C6F-4009-B4E0-4D26069CC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13680D5E-2040-4CCB-B5D0-4D898598AEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{43D88A90-2172-449C-9992-B023FC71D32F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="2858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="2859">
   <si>
     <t>aamiin</t>
   </si>
@@ -7324,9 +7324,6 @@
     <t>safety</t>
   </si>
   <si>
-    <t>kemanan</t>
-  </si>
-  <si>
     <t>comfot</t>
   </si>
   <si>
@@ -8594,6 +8591,12 @@
   </si>
   <si>
     <t>nyamannnnn</t>
+  </si>
+  <si>
+    <t>keamanan</t>
+  </si>
+  <si>
+    <t>deabakkk</t>
   </si>
 </sst>
 </file>
@@ -9471,8 +9474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED07C94-7430-499B-B42C-5C8949A19527}">
   <dimension ref="A1:B3283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3263" workbookViewId="0">
-      <selection activeCell="A3284" sqref="A3284"/>
+    <sheetView tabSelected="1" topLeftCell="A2742" workbookViewId="0">
+      <selection activeCell="A2754" sqref="A2754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31484,7 +31487,7 @@
     </row>
     <row r="2753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2753" t="s">
-        <v>2145</v>
+        <v>2858</v>
       </c>
       <c r="B2753" t="s">
         <v>2146</v>
@@ -33307,20 +33310,20 @@
         <v>2433</v>
       </c>
       <c r="B2982" t="s">
-        <v>2434</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="2983" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2983" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B2983" t="s">
         <v>2435</v>
-      </c>
-      <c r="B2983" t="s">
-        <v>2436</v>
       </c>
     </row>
     <row r="2984" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2984" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B2984" t="s">
         <v>2034</v>
@@ -33328,15 +33331,15 @@
     </row>
     <row r="2985" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2985" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B2985" t="s">
         <v>2438</v>
-      </c>
-      <c r="B2985" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="2986" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2986" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B2986" t="s">
         <v>17</v>
@@ -33344,10 +33347,10 @@
     </row>
     <row r="2987" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2987" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B2987" t="s">
         <v>2441</v>
-      </c>
-      <c r="B2987" t="s">
-        <v>2442</v>
       </c>
     </row>
     <row r="2988" spans="1:2" x14ac:dyDescent="0.35">
@@ -33355,12 +33358,12 @@
         <v>2217</v>
       </c>
       <c r="B2988" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="2989" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2989" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B2989" t="s">
         <v>2309</v>
@@ -33368,15 +33371,15 @@
     </row>
     <row r="2990" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2990" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B2990" t="s">
         <v>2445</v>
-      </c>
-      <c r="B2990" t="s">
-        <v>2446</v>
       </c>
     </row>
     <row r="2991" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2991" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B2991" t="s">
         <v>1433</v>
@@ -33384,15 +33387,15 @@
     </row>
     <row r="2992" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2992" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B2992" t="s">
         <v>2448</v>
-      </c>
-      <c r="B2992" t="s">
-        <v>2449</v>
       </c>
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2993" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B2993" t="s">
         <v>2196</v>
@@ -33400,15 +33403,15 @@
     </row>
     <row r="2994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2994" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B2994" t="s">
         <v>2451</v>
-      </c>
-      <c r="B2994" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="2995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2995" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B2995" t="s">
         <v>1433</v>
@@ -33416,42 +33419,42 @@
     </row>
     <row r="2996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2996" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B2996" t="s">
         <v>2454</v>
-      </c>
-      <c r="B2996" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="2997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2997" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B2997" t="s">
         <v>2456</v>
-      </c>
-      <c r="B2997" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="2998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2998" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B2998" t="s">
         <v>2458</v>
-      </c>
-      <c r="B2998" t="s">
-        <v>2459</v>
       </c>
     </row>
     <row r="2999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2999" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B2999" t="s">
         <v>2460</v>
-      </c>
-      <c r="B2999" t="s">
-        <v>2461</v>
       </c>
     </row>
     <row r="3000" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3000" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B3000" t="s">
         <v>2462</v>
-      </c>
-      <c r="B3000" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="3001" spans="1:2" x14ac:dyDescent="0.35">
@@ -33464,7 +33467,7 @@
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3002" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B3002" t="s">
         <v>1433</v>
@@ -33472,15 +33475,15 @@
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3003" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B3003" t="s">
         <v>2465</v>
-      </c>
-      <c r="B3003" t="s">
-        <v>2466</v>
       </c>
     </row>
     <row r="3004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3004" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B3004" t="s">
         <v>2075</v>
@@ -33488,7 +33491,7 @@
     </row>
     <row r="3005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3005" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B3005" t="s">
         <v>2178</v>
@@ -33504,7 +33507,7 @@
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3007" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B3007" t="s">
         <v>1433</v>
@@ -33512,31 +33515,31 @@
     </row>
     <row r="3008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3008" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B3008" t="s">
         <v>2471</v>
-      </c>
-      <c r="B3008" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="3009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3009" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B3009" t="s">
         <v>2473</v>
-      </c>
-      <c r="B3009" t="s">
-        <v>2474</v>
       </c>
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3010" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B3010" t="s">
         <v>2475</v>
-      </c>
-      <c r="B3010" t="s">
-        <v>2476</v>
       </c>
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3011" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B3011" t="s">
         <v>2072</v>
@@ -33544,15 +33547,15 @@
     </row>
     <row r="3012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3012" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B3012" t="s">
         <v>2478</v>
-      </c>
-      <c r="B3012" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="3013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3013" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B3013" t="s">
         <v>2033</v>
@@ -33560,7 +33563,7 @@
     </row>
     <row r="3014" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3014" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B3014" t="s">
         <v>91</v>
@@ -33568,7 +33571,7 @@
     </row>
     <row r="3015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3015" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B3015" t="s">
         <v>1114</v>
@@ -33576,55 +33579,55 @@
     </row>
     <row r="3016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3016" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B3016" t="s">
         <v>2483</v>
-      </c>
-      <c r="B3016" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="3017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3017" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B3017" t="s">
         <v>2485</v>
-      </c>
-      <c r="B3017" t="s">
-        <v>2486</v>
       </c>
     </row>
     <row r="3018" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3018" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B3018" t="s">
         <v>2487</v>
-      </c>
-      <c r="B3018" t="s">
-        <v>2488</v>
       </c>
     </row>
     <row r="3019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3019" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B3019" t="s">
         <v>2489</v>
-      </c>
-      <c r="B3019" t="s">
-        <v>2490</v>
       </c>
     </row>
     <row r="3020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3020" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B3020" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="3021" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3021" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B3021" t="s">
         <v>2492</v>
-      </c>
-      <c r="B3021" t="s">
-        <v>2493</v>
       </c>
     </row>
     <row r="3022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3022" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B3022" t="s">
         <v>2119</v>
@@ -33632,39 +33635,39 @@
     </row>
     <row r="3023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3023" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B3023" t="s">
         <v>2495</v>
-      </c>
-      <c r="B3023" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="3024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3024" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B3024" t="s">
         <v>2497</v>
-      </c>
-      <c r="B3024" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="3025" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3025" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B3025" t="s">
         <v>2499</v>
-      </c>
-      <c r="B3025" t="s">
-        <v>2500</v>
       </c>
     </row>
     <row r="3026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3026" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B3026" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="3027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3027" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B3027" t="s">
         <v>2196</v>
@@ -33672,7 +33675,7 @@
     </row>
     <row r="3028" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3028" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B3028" t="s">
         <v>2196</v>
@@ -33680,39 +33683,39 @@
     </row>
     <row r="3029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3029" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B3029" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="3030" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3030" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B3030" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="3031" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3031" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B3031" t="s">
         <v>2505</v>
-      </c>
-      <c r="B3031" t="s">
-        <v>2506</v>
       </c>
     </row>
     <row r="3032" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3032" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B3032" t="s">
         <v>2508</v>
-      </c>
-      <c r="B3032" t="s">
-        <v>2509</v>
       </c>
     </row>
     <row r="3033" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3033" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B3033" t="s">
         <v>2072</v>
@@ -33720,26 +33723,26 @@
     </row>
     <row r="3034" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3034" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B3034" t="s">
         <v>2511</v>
-      </c>
-      <c r="B3034" t="s">
-        <v>2512</v>
       </c>
     </row>
     <row r="3035" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3035" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B3035" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="3036" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3036" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B3036" t="s">
         <v>2514</v>
-      </c>
-      <c r="B3036" t="s">
-        <v>2515</v>
       </c>
     </row>
     <row r="3037" spans="1:2" x14ac:dyDescent="0.35">
@@ -33747,12 +33750,12 @@
         <v>2243</v>
       </c>
       <c r="B3037" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="3038" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3038" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B3038" t="s">
         <v>2075</v>
@@ -33760,23 +33763,23 @@
     </row>
     <row r="3039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3039" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B3039" t="s">
         <v>2517</v>
-      </c>
-      <c r="B3039" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="3040" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3040" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B3040" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="3041" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3041" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B3041" t="s">
         <v>1114</v>
@@ -33784,7 +33787,7 @@
     </row>
     <row r="3042" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3042" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B3042" t="s">
         <v>33</v>
@@ -33792,15 +33795,15 @@
     </row>
     <row r="3043" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3043" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B3043" t="s">
         <v>2522</v>
-      </c>
-      <c r="B3043" t="s">
-        <v>2523</v>
       </c>
     </row>
     <row r="3044" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3044" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B3044" t="s">
         <v>1839</v>
@@ -33808,7 +33811,7 @@
     </row>
     <row r="3045" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3045" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B3045" t="s">
         <v>650</v>
@@ -33816,7 +33819,7 @@
     </row>
     <row r="3046" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3046" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B3046" t="s">
         <v>2055</v>
@@ -33824,7 +33827,7 @@
     </row>
     <row r="3047" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3047" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B3047" t="s">
         <v>1433</v>
@@ -33832,15 +33835,15 @@
     </row>
     <row r="3048" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3048" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B3048" t="s">
         <v>2528</v>
-      </c>
-      <c r="B3048" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="3049" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3049" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B3049" t="s">
         <v>913</v>
@@ -33848,7 +33851,7 @@
     </row>
     <row r="3050" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3050" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B3050" t="s">
         <v>1433</v>
@@ -33856,7 +33859,7 @@
     </row>
     <row r="3051" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3051" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B3051" t="s">
         <v>2059</v>
@@ -33864,39 +33867,39 @@
     </row>
     <row r="3052" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3052" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B3052" t="s">
         <v>2533</v>
-      </c>
-      <c r="B3052" t="s">
-        <v>2534</v>
       </c>
     </row>
     <row r="3053" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3053" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B3053" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="3054" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3054" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B3054" t="s">
         <v>2536</v>
-      </c>
-      <c r="B3054" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="3055" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3055" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B3055" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="3056" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3056" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B3056" t="s">
         <v>2020</v>
@@ -33904,7 +33907,7 @@
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3057" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B3057" t="s">
         <v>2251</v>
@@ -33912,15 +33915,15 @@
     </row>
     <row r="3058" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3058" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B3058" t="s">
         <v>2541</v>
-      </c>
-      <c r="B3058" t="s">
-        <v>2542</v>
       </c>
     </row>
     <row r="3059" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3059" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B3059" t="s">
         <v>2180</v>
@@ -33928,10 +33931,10 @@
     </row>
     <row r="3060" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3060" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B3060" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="3061" spans="1:2" x14ac:dyDescent="0.35">
@@ -33939,28 +33942,28 @@
         <v>2389</v>
       </c>
       <c r="B3061" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="3062" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3062" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B3062" t="s">
         <v>2545</v>
-      </c>
-      <c r="B3062" t="s">
-        <v>2546</v>
       </c>
     </row>
     <row r="3063" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3063" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B3063" t="s">
         <v>2547</v>
-      </c>
-      <c r="B3063" t="s">
-        <v>2548</v>
       </c>
     </row>
     <row r="3064" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3064" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B3064" t="s">
         <v>1114</v>
@@ -33968,7 +33971,7 @@
     </row>
     <row r="3065" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3065" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B3065" t="s">
         <v>2307</v>
@@ -33976,7 +33979,7 @@
     </row>
     <row r="3066" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3066" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B3066" t="s">
         <v>1433</v>
@@ -33984,15 +33987,15 @@
     </row>
     <row r="3067" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3067" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B3067" t="s">
         <v>2552</v>
-      </c>
-      <c r="B3067" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="3068" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3068" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B3068" t="s">
         <v>2357</v>
@@ -34000,31 +34003,31 @@
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3069" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B3069" t="s">
         <v>2555</v>
-      </c>
-      <c r="B3069" t="s">
-        <v>2556</v>
       </c>
     </row>
     <row r="3070" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3070" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B3070" t="s">
         <v>2557</v>
-      </c>
-      <c r="B3070" t="s">
-        <v>2558</v>
       </c>
     </row>
     <row r="3071" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3071" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B3071" t="s">
         <v>2559</v>
-      </c>
-      <c r="B3071" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3072" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B3072" t="s">
         <v>1433</v>
@@ -34032,39 +34035,39 @@
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3073" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B3073" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="3074" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3074" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B3074" t="s">
         <v>2563</v>
-      </c>
-      <c r="B3074" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3075" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B3075" t="s">
         <v>2565</v>
-      </c>
-      <c r="B3075" t="s">
-        <v>2566</v>
       </c>
     </row>
     <row r="3076" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3076" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B3076" t="s">
         <v>2567</v>
-      </c>
-      <c r="B3076" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="3077" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3077" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B3077" t="s">
         <v>2033</v>
@@ -34072,15 +34075,15 @@
     </row>
     <row r="3078" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3078" t="s">
+        <v>2569</v>
+      </c>
+      <c r="B3078" t="s">
         <v>2570</v>
-      </c>
-      <c r="B3078" t="s">
-        <v>2571</v>
       </c>
     </row>
     <row r="3079" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3079" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B3079" t="s">
         <v>2048</v>
@@ -34088,15 +34091,15 @@
     </row>
     <row r="3080" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3080" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B3080" t="s">
         <v>2573</v>
-      </c>
-      <c r="B3080" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="3081" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3081" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B3081" t="s">
         <v>2037</v>
@@ -34104,15 +34107,15 @@
     </row>
     <row r="3082" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3082" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B3082" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="3083" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3083" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B3083" t="s">
         <v>2227</v>
@@ -34128,15 +34131,15 @@
     </row>
     <row r="3085" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3085" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B3085" t="s">
         <v>2579</v>
-      </c>
-      <c r="B3085" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="3086" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3086" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B3086" t="s">
         <v>2103</v>
@@ -34144,39 +34147,39 @@
     </row>
     <row r="3087" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3087" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B3087" t="s">
         <v>2582</v>
-      </c>
-      <c r="B3087" t="s">
-        <v>2583</v>
       </c>
     </row>
     <row r="3088" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3088" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B3088" t="s">
         <v>2584</v>
-      </c>
-      <c r="B3088" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="3089" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3089" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B3089" t="s">
         <v>2586</v>
-      </c>
-      <c r="B3089" t="s">
-        <v>2587</v>
       </c>
     </row>
     <row r="3090" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3090" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B3090" t="s">
         <v>2588</v>
-      </c>
-      <c r="B3090" t="s">
-        <v>2589</v>
       </c>
     </row>
     <row r="3091" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3091" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B3091" t="s">
         <v>2119</v>
@@ -34184,7 +34187,7 @@
     </row>
     <row r="3092" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3092" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B3092" t="s">
         <v>2421</v>
@@ -34192,7 +34195,7 @@
     </row>
     <row r="3093" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3093" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B3093" t="s">
         <v>1433</v>
@@ -34208,7 +34211,7 @@
     </row>
     <row r="3095" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3095" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B3095" t="s">
         <v>2205</v>
@@ -34216,47 +34219,47 @@
     </row>
     <row r="3096" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3096" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B3096" t="s">
         <v>2594</v>
-      </c>
-      <c r="B3096" t="s">
-        <v>2595</v>
       </c>
     </row>
     <row r="3097" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3097" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B3097" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="3098" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3098" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B3098" t="s">
         <v>2597</v>
-      </c>
-      <c r="B3098" t="s">
-        <v>2598</v>
       </c>
     </row>
     <row r="3099" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3099" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B3099" t="s">
         <v>2599</v>
-      </c>
-      <c r="B3099" t="s">
-        <v>2600</v>
       </c>
     </row>
     <row r="3100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3100" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B3100" t="s">
         <v>2601</v>
-      </c>
-      <c r="B3100" t="s">
-        <v>2602</v>
       </c>
     </row>
     <row r="3101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3101" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B3101" t="s">
         <v>2199</v>
@@ -34272,15 +34275,15 @@
     </row>
     <row r="3103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3103" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B3103" t="s">
         <v>2604</v>
-      </c>
-      <c r="B3103" t="s">
-        <v>2605</v>
       </c>
     </row>
     <row r="3104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3104" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B3104" t="s">
         <v>164</v>
@@ -34288,15 +34291,15 @@
     </row>
     <row r="3105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3105" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B3105" t="s">
         <v>2608</v>
-      </c>
-      <c r="B3105" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="3106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3106" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B3106" t="s">
         <v>2303</v>
@@ -34304,7 +34307,7 @@
     </row>
     <row r="3107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3107" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B3107" t="s">
         <v>1117</v>
@@ -34312,15 +34315,15 @@
     </row>
     <row r="3108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3108" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B3108" t="s">
         <v>2612</v>
-      </c>
-      <c r="B3108" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="3109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3109" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B3109" t="s">
         <v>2057</v>
@@ -34328,7 +34331,7 @@
     </row>
     <row r="3110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3110" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B3110" t="s">
         <v>2072</v>
@@ -34336,15 +34339,15 @@
     </row>
     <row r="3111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3111" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B3111" t="s">
         <v>2616</v>
-      </c>
-      <c r="B3111" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3112" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B3112" t="s">
         <v>836</v>
@@ -34352,23 +34355,23 @@
     </row>
     <row r="3113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3113" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B3113" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3114" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B3114" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3115" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B3115" t="s">
         <v>2072</v>
@@ -34376,15 +34379,15 @@
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3116" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B3116" t="s">
         <v>2622</v>
-      </c>
-      <c r="B3116" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3117" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B3117" t="s">
         <v>1433</v>
@@ -34400,71 +34403,71 @@
     </row>
     <row r="3119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3119" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B3119" t="s">
         <v>2625</v>
-      </c>
-      <c r="B3119" t="s">
-        <v>2626</v>
       </c>
     </row>
     <row r="3120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3120" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B3120" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="3121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3121" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B3121" t="s">
         <v>2628</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>2629</v>
       </c>
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3122" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B3122" t="s">
         <v>2630</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>2631</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3123" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B3123" t="s">
         <v>2632</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>2633</v>
       </c>
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3124" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B3124" t="s">
         <v>2634</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3125" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B3125" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3126" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B3126" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3127" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B3127" t="s">
         <v>2037</v>
@@ -34472,15 +34475,15 @@
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3128" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B3128" t="s">
         <v>2639</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>2640</v>
       </c>
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3129" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B3129" t="s">
         <v>2037</v>
@@ -34488,7 +34491,7 @@
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3130" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B3130" t="s">
         <v>330</v>
@@ -34496,7 +34499,7 @@
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3131" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B3131" t="s">
         <v>591</v>
@@ -34504,23 +34507,23 @@
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3132" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B3132" t="s">
         <v>2644</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3133" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B3133" t="s">
         <v>2646</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>2647</v>
       </c>
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3134" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B3134" t="s">
         <v>1587</v>
@@ -34528,7 +34531,7 @@
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3135" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B3135" t="s">
         <v>1433</v>
@@ -34536,15 +34539,15 @@
     </row>
     <row r="3136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3136" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B3136" t="s">
         <v>2650</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>2651</v>
       </c>
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3137" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B3137" t="s">
         <v>2050</v>
@@ -34552,31 +34555,31 @@
     </row>
     <row r="3138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3138" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B3138" t="s">
         <v>2653</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3139" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B3139" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="3140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3140" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B3140" t="s">
         <v>2656</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>2657</v>
       </c>
     </row>
     <row r="3141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3141" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B3141" t="s">
         <v>1117</v>
@@ -34584,31 +34587,31 @@
     </row>
     <row r="3142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3142" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B3142" t="s">
         <v>2659</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3143" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B3143" t="s">
         <v>2661</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>2662</v>
       </c>
     </row>
     <row r="3144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3144" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B3144" t="s">
         <v>2663</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="3145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3145" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B3145" t="s">
         <v>2107</v>
@@ -34616,7 +34619,7 @@
     </row>
     <row r="3146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3146" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B3146" t="s">
         <v>742</v>
@@ -34624,39 +34627,39 @@
     </row>
     <row r="3147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3147" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B3147" t="s">
         <v>2667</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>2668</v>
       </c>
     </row>
     <row r="3148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3148" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B3148" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3149" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B3149" t="s">
         <v>2670</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>2671</v>
       </c>
     </row>
     <row r="3150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3150" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B3150" t="s">
         <v>2672</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>2673</v>
       </c>
     </row>
     <row r="3151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3151" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B3151" t="s">
         <v>2251</v>
@@ -34664,7 +34667,7 @@
     </row>
     <row r="3152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3152" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B3152" t="s">
         <v>2309</v>
@@ -34672,55 +34675,55 @@
     </row>
     <row r="3153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3153" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B3153" t="s">
         <v>2675</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>2676</v>
       </c>
     </row>
     <row r="3154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3154" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B3154" t="s">
         <v>2677</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="3155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3155" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B3155" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="3156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3156" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B3156" t="s">
         <v>2680</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>2681</v>
       </c>
     </row>
     <row r="3157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3157" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B3157" t="s">
         <v>2682</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="3158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3158" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B3158" t="s">
         <v>2684</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="3159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3159" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B3159" t="s">
         <v>390</v>
@@ -34728,7 +34731,7 @@
     </row>
     <row r="3160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3160" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B3160" t="s">
         <v>2047</v>
@@ -34736,63 +34739,63 @@
     </row>
     <row r="3161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3161" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B3161" t="s">
         <v>2688</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>2689</v>
       </c>
     </row>
     <row r="3162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3162" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B3162" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="3163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3163" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B3163" t="s">
         <v>2691</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="3164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3164" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B3164" t="s">
         <v>2693</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>2694</v>
       </c>
     </row>
     <row r="3165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3165" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B3165" t="s">
         <v>2695</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>2696</v>
       </c>
     </row>
     <row r="3166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3166" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B3166" t="s">
         <v>2697</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>2698</v>
       </c>
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3167" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B3167" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3168" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B3168" t="s">
         <v>2027</v>
@@ -34800,7 +34803,7 @@
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3169" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B3169" t="s">
         <v>2227</v>
@@ -34808,31 +34811,31 @@
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3170" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B3170" t="s">
         <v>2702</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>2703</v>
       </c>
     </row>
     <row r="3171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3171" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B3171" t="s">
         <v>2704</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>2705</v>
       </c>
     </row>
     <row r="3172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3172" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B3172" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="3173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3173" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B3173" t="s">
         <v>2037</v>
@@ -34840,15 +34843,15 @@
     </row>
     <row r="3174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3174" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B3174" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="3175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3175" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B3175" t="s">
         <v>2125</v>
@@ -34856,7 +34859,7 @@
     </row>
     <row r="3176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3176" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B3176" t="s">
         <v>2196</v>
@@ -34864,7 +34867,7 @@
     </row>
     <row r="3177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3177" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B3177" t="s">
         <v>1117</v>
@@ -34872,47 +34875,47 @@
     </row>
     <row r="3178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3178" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B3178" t="s">
         <v>2713</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>2714</v>
       </c>
     </row>
     <row r="3179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3179" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B3179" t="s">
         <v>2715</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>2716</v>
       </c>
     </row>
     <row r="3180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3180" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B3180" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="3181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3181" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B3181" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="3182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3182" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B3182" t="s">
         <v>2719</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>2720</v>
       </c>
     </row>
     <row r="3183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3183" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B3183" t="s">
         <v>2262</v>
@@ -34920,7 +34923,7 @@
     </row>
     <row r="3184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3184" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B3184" t="s">
         <v>1433</v>
@@ -34928,15 +34931,15 @@
     </row>
     <row r="3185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3185" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B3185" t="s">
         <v>2723</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="3186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3186" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B3186" t="s">
         <v>2069</v>
@@ -34944,7 +34947,7 @@
     </row>
     <row r="3187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3187" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B3187" t="s">
         <v>2397</v>
@@ -34952,7 +34955,7 @@
     </row>
     <row r="3188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3188" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B3188" t="s">
         <v>1433</v>
@@ -34960,23 +34963,23 @@
     </row>
     <row r="3189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3189" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B3189" t="s">
         <v>2728</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>2729</v>
       </c>
     </row>
     <row r="3190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3190" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B3190" t="s">
         <v>2730</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="3191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3191" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B3191" t="s">
         <v>591</v>
@@ -34984,7 +34987,7 @@
     </row>
     <row r="3192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3192" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B3192" t="s">
         <v>1433</v>
@@ -34992,7 +34995,7 @@
     </row>
     <row r="3193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3193" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B3193" t="s">
         <v>2069</v>
@@ -35000,15 +35003,15 @@
     </row>
     <row r="3194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3194" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B3194" t="s">
         <v>2734</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>2735</v>
       </c>
     </row>
     <row r="3195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3195" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B3195" t="s">
         <v>2307</v>
@@ -35016,23 +35019,23 @@
     </row>
     <row r="3196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3196" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B3196" t="s">
         <v>2737</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>2738</v>
       </c>
     </row>
     <row r="3197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3197" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B3197" t="s">
         <v>2739</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="3198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3198" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B3198" t="s">
         <v>2134</v>
@@ -35040,15 +35043,15 @@
     </row>
     <row r="3199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3199" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B3199" t="s">
         <v>2742</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="3200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3200" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B3200" t="s">
         <v>1433</v>
@@ -35056,7 +35059,7 @@
     </row>
     <row r="3201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3201" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B3201" t="s">
         <v>330</v>
@@ -35064,23 +35067,23 @@
     </row>
     <row r="3202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3202" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B3202" t="s">
         <v>2746</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="3203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3203" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B3203" t="s">
         <v>2748</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="3204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3204" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B3204" t="s">
         <v>2069</v>
@@ -35088,55 +35091,55 @@
     </row>
     <row r="3205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3205" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B3205" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="3206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3206" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="B3206" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="3207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3207" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B3207" t="s">
         <v>2753</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="3208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3208" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B3208" t="s">
         <v>2755</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="3209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3209" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B3209" t="s">
         <v>2757</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="3210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3210" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B3210" t="s">
         <v>2759</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="3211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3211" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B3211" t="s">
         <v>591</v>
@@ -35144,31 +35147,31 @@
     </row>
     <row r="3212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3212" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B3212" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="3213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3213" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B3213" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="3214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3214" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B3214" t="s">
         <v>2764</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>2765</v>
       </c>
     </row>
     <row r="3215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3215" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B3215" t="s">
         <v>2027</v>
@@ -35176,7 +35179,7 @@
     </row>
     <row r="3216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3216" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B3216" t="s">
         <v>1433</v>
@@ -35184,7 +35187,7 @@
     </row>
     <row r="3217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3217" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B3217" t="s">
         <v>1433</v>
@@ -35192,7 +35195,7 @@
     </row>
     <row r="3218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3218" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B3218" t="s">
         <v>738</v>
@@ -35200,15 +35203,15 @@
     </row>
     <row r="3219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3219" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B3219" t="s">
         <v>2770</v>
-      </c>
-      <c r="B3219" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="3220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3220" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B3220" t="s">
         <v>1433</v>
@@ -35216,39 +35219,39 @@
     </row>
     <row r="3221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3221" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B3221" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="3222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3222" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B3222" t="s">
         <v>2774</v>
-      </c>
-      <c r="B3222" t="s">
-        <v>2775</v>
       </c>
     </row>
     <row r="3223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3223" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B3223" t="s">
         <v>2776</v>
-      </c>
-      <c r="B3223" t="s">
-        <v>2777</v>
       </c>
     </row>
     <row r="3224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3224" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B3224" t="s">
         <v>2778</v>
-      </c>
-      <c r="B3224" t="s">
-        <v>2779</v>
       </c>
     </row>
     <row r="3225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3225" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B3225" t="s">
         <v>1478</v>
@@ -35256,23 +35259,23 @@
     </row>
     <row r="3226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3226" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B3226" t="s">
         <v>2781</v>
-      </c>
-      <c r="B3226" t="s">
-        <v>2782</v>
       </c>
     </row>
     <row r="3227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3227" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B3227" t="s">
         <v>2783</v>
-      </c>
-      <c r="B3227" t="s">
-        <v>2784</v>
       </c>
     </row>
     <row r="3228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3228" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B3228" t="s">
         <v>1478</v>
@@ -35280,31 +35283,31 @@
     </row>
     <row r="3229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3229" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B3229" t="s">
         <v>2786</v>
-      </c>
-      <c r="B3229" t="s">
-        <v>2787</v>
       </c>
     </row>
     <row r="3230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3230" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B3230" t="s">
         <v>2788</v>
-      </c>
-      <c r="B3230" t="s">
-        <v>2789</v>
       </c>
     </row>
     <row r="3231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3231" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B3231" t="s">
         <v>2790</v>
-      </c>
-      <c r="B3231" t="s">
-        <v>2791</v>
       </c>
     </row>
     <row r="3232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3232" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B3232" t="s">
         <v>2258</v>
@@ -35312,15 +35315,15 @@
     </row>
     <row r="3233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3233" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B3233" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="3234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3234" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B3234" t="s">
         <v>2165</v>
@@ -35328,7 +35331,7 @@
     </row>
     <row r="3235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3235" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B3235" t="s">
         <v>2151</v>
@@ -35336,15 +35339,15 @@
     </row>
     <row r="3236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3236" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B3236" t="s">
         <v>2796</v>
-      </c>
-      <c r="B3236" t="s">
-        <v>2797</v>
       </c>
     </row>
     <row r="3237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3237" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B3237" t="s">
         <v>1433</v>
@@ -35352,23 +35355,23 @@
     </row>
     <row r="3238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3238" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B3238" t="s">
         <v>2799</v>
-      </c>
-      <c r="B3238" t="s">
-        <v>2800</v>
       </c>
     </row>
     <row r="3239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3239" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B3239" t="s">
         <v>2801</v>
-      </c>
-      <c r="B3239" t="s">
-        <v>2802</v>
       </c>
     </row>
     <row r="3240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3240" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B3240" t="s">
         <v>2027</v>
@@ -35376,7 +35379,7 @@
     </row>
     <row r="3241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3241" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B3241" t="s">
         <v>2050</v>
@@ -35384,23 +35387,23 @@
     </row>
     <row r="3242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3242" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B3242" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="3243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3243" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B3243" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="3244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3244" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B3244" t="s">
         <v>2227</v>
@@ -35408,23 +35411,23 @@
     </row>
     <row r="3245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3245" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B3245" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="3246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3246" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B3246" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="3247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3247" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B3247" t="s">
         <v>2075</v>
@@ -35432,7 +35435,7 @@
     </row>
     <row r="3248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3248" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B3248" t="s">
         <v>2214</v>
@@ -35440,23 +35443,23 @@
     </row>
     <row r="3249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3249" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B3249" t="s">
         <v>2812</v>
-      </c>
-      <c r="B3249" t="s">
-        <v>2813</v>
       </c>
     </row>
     <row r="3250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3250" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B3250" t="s">
         <v>2814</v>
-      </c>
-      <c r="B3250" t="s">
-        <v>2815</v>
       </c>
     </row>
     <row r="3251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3251" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B3251" t="s">
         <v>1433</v>
@@ -35464,15 +35467,15 @@
     </row>
     <row r="3252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3252" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B3252" t="s">
         <v>2817</v>
-      </c>
-      <c r="B3252" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row r="3253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3253" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B3253" t="s">
         <v>2114</v>
@@ -35480,15 +35483,15 @@
     </row>
     <row r="3254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3254" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B3254" t="s">
         <v>2820</v>
-      </c>
-      <c r="B3254" t="s">
-        <v>2821</v>
       </c>
     </row>
     <row r="3255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3255" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B3255" t="s">
         <v>2282</v>
@@ -35496,7 +35499,7 @@
     </row>
     <row r="3256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3256" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B3256" t="s">
         <v>2288</v>
@@ -35504,15 +35507,15 @@
     </row>
     <row r="3257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3257" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B3257" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="3258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3258" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B3258" t="s">
         <v>1433</v>
@@ -35520,15 +35523,15 @@
     </row>
     <row r="3259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3259" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B3259" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="3260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3260" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B3260" t="s">
         <v>2037</v>
@@ -35536,7 +35539,7 @@
     </row>
     <row r="3261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3261" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B3261" t="s">
         <v>2027</v>
@@ -35544,7 +35547,7 @@
     </row>
     <row r="3262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3262" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B3262" t="s">
         <v>1114</v>
@@ -35552,31 +35555,31 @@
     </row>
     <row r="3263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3263" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B3263" t="s">
         <v>2830</v>
-      </c>
-      <c r="B3263" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="3264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3264" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B3264" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="3265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3265" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B3265" t="s">
         <v>2833</v>
-      </c>
-      <c r="B3265" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="3266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3266" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B3266" t="s">
         <v>2227</v>
@@ -35584,15 +35587,15 @@
     </row>
     <row r="3267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3267" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B3267" t="s">
         <v>2836</v>
-      </c>
-      <c r="B3267" t="s">
-        <v>2837</v>
       </c>
     </row>
     <row r="3268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3268" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="B3268" t="s">
         <v>1433</v>
@@ -35600,7 +35603,7 @@
     </row>
     <row r="3269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3269" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B3269" t="s">
         <v>1433</v>
@@ -35608,7 +35611,7 @@
     </row>
     <row r="3270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3270" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="B3270" t="s">
         <v>2288</v>
@@ -35616,79 +35619,79 @@
     </row>
     <row r="3271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3271" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="B3271" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="3272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3272" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B3272" t="s">
         <v>2841</v>
-      </c>
-      <c r="B3272" t="s">
-        <v>2842</v>
       </c>
     </row>
     <row r="3273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3273" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="B3273" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="3274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3274" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="B3274" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="3275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3275" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B3275" t="s">
         <v>2845</v>
-      </c>
-      <c r="B3275" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="3276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3276" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B3276" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="3277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3277" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B3277" t="s">
         <v>2848</v>
-      </c>
-      <c r="B3277" t="s">
-        <v>2849</v>
       </c>
     </row>
     <row r="3278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3278" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B3278" t="s">
         <v>2850</v>
-      </c>
-      <c r="B3278" t="s">
-        <v>2851</v>
       </c>
     </row>
     <row r="3279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3279" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B3279" t="s">
         <v>2852</v>
-      </c>
-      <c r="B3279" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row r="3280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3280" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B3280" t="s">
         <v>2227</v>
@@ -35696,7 +35699,7 @@
     </row>
     <row r="3281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3281" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B3281" t="s">
         <v>1669</v>
@@ -35704,7 +35707,7 @@
     </row>
     <row r="3282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3282" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B3282" t="s">
         <v>2237</v>
@@ -35712,7 +35715,7 @@
     </row>
     <row r="3283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3283" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B3283" t="s">
         <v>2317</v>
